--- a/Excel/Task_6/Solution_6.xlsx
+++ b/Excel/Task_6/Solution_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikhlyantsevAA\Desktop\Portfolio_Analytics\Excel\Task_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF0D98F-D38F-4DAB-978E-B3762B81AD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F033A-4F50-4BDF-AB1B-D6BCEC57EC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{681B6C4E-22D0-4B88-AF18-F8CDF5033BD5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{681B6C4E-22D0-4B88-AF18-F8CDF5033BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Поиск решения " sheetId="2" r:id="rId1"/>
@@ -262,10 +262,10 @@
     <t xml:space="preserve">По графику видно, что у нас план производства и складской запас </t>
   </si>
   <si>
-    <t xml:space="preserve">которых у нас не будет хватать товара для реализации не будет </t>
+    <t xml:space="preserve">превышает или равен спросу. Это говорит о том, что количество </t>
   </si>
   <si>
-    <t xml:space="preserve">превышает или равен спросу. Это говорит о том, что ситуаций при </t>
+    <t>продукции на складе будет покрывать спрос</t>
   </si>
 </sst>
 </file>
@@ -34461,7 +34461,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35542,12 +35542,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
